--- a/petitions.xlsx
+++ b/petitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/presidential-pardons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{7B595922-511D-D245-B58F-3B49DBA68EF0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{5CE7A92B-FAFB-9540-BFC3-8D22D96F8A02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="3320" windowWidth="30000" windowHeight="22940"/>
   </bookViews>
